--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145930.9621803534</v>
+        <v>136806.9631868888</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24060051.67942109</v>
+        <v>24060051.67942108</v>
       </c>
     </row>
     <row r="8">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.90177044380172</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>219.5565574740966</v>
       </c>
       <c r="V11" t="n">
-        <v>193.3854158231842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>59.22911908072536</v>
+      </c>
+      <c r="Y11" t="n">
         <v>219.5565574740966</v>
-      </c>
-      <c r="X11" t="n">
-        <v>219.5565574740966</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>59.48874241761037</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
         <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>103.8146900441011</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>19.72327283162461</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>24.00297710928358</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>219.5565574740966</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="X13" t="n">
         <v>219.5565574740966</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>275.3708371773623</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>254.3640419623921</v>
       </c>
       <c r="V14" t="n">
-        <v>275.3708371773615</v>
+        <v>50.4550828592194</v>
       </c>
       <c r="W14" t="n">
-        <v>275.3708371773615</v>
+        <v>275.3708371773623</v>
       </c>
       <c r="X14" t="n">
-        <v>50.45508285921791</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8370179784802</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.0785498519419</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>127.4933425020919</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>172.2308025414246</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.1383259618034</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>255.0052317298637</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>168.6547871796834</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>290.2067984368697</v>
       </c>
       <c r="G17" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.06913856489282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193201</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>104.6754635109996</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T18" t="n">
         <v>152.7312370348056</v>
@@ -2007,22 +2007,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H19" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I19" t="n">
-        <v>83.80004204681615</v>
+        <v>82.06855921069578</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T19" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>211.4725076846983</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>43.75161849872884</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>395.6425795367727</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H21" t="n">
-        <v>58.01809521505042</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>195.2954114342289</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>211.574411736897</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>37.05878508127701</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I22" t="n">
-        <v>57.65975750190519</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>70.53404966879704</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>343.8070066188205</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>50.9772450445106</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>158.4697105951611</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>283.9738944557603</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.62818550907738</v>
+        <v>72.83691809691678</v>
       </c>
       <c r="T26" t="n">
         <v>209.8004861190321</v>
@@ -2617,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>152.7312370348056</v>
       </c>
       <c r="U27" t="n">
-        <v>195.2954114342294</v>
+        <v>195.2954114342289</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>37.47349090808321</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
         <v>83.80004204681616</v>
@@ -2769,7 +2769,7 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>150.6304961531946</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>52.97692611129278</v>
+        <v>33.2623400146444</v>
       </c>
       <c r="G29" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
         <v>254.3037726831681</v>
@@ -2857,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098128</v>
       </c>
       <c r="T30" t="n">
         <v>152.7312370348056</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>16.59030655629097</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681616</v>
+        <v>63.22102404617677</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>384.6176111029252</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>313.0891771181638</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>93.35052185511404</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>190.864272627283</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>89.40761084767024</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>28.82494019374905</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>159.9285066601264</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>200.2470509874274</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3505,19 +3505,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>341.2386396699433</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>266.7569083296273</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.6754635109993</v>
+        <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>45.11784630307617</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>232.6944259398202</v>
+        <v>3.758426184055442</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>23.30680433870047</v>
       </c>
       <c r="G41" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>200.3476268264552</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3900,10 +3900,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3915,10 +3915,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>44.01808936823692</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>185.2458730056791</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>253.7005301604801</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>324.837822351965</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521504997</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098197</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>162.9588905770197</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>11.84243289825868</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.56452459792773</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="C11" t="n">
-        <v>17.56452459792773</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="D11" t="n">
-        <v>17.56452459792773</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="E11" t="n">
-        <v>17.56452459792773</v>
+        <v>271.5628356261079</v>
       </c>
       <c r="F11" t="n">
-        <v>17.56452459792773</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="G11" t="n">
-        <v>17.56452459792773</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="H11" t="n">
-        <v>17.56452459792773</v>
+        <v>49.7885351472224</v>
       </c>
       <c r="I11" t="n">
         <v>17.56452459792773</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422718</v>
+        <v>61.76566646422719</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474256</v>
       </c>
       <c r="L11" t="n">
         <v>271.1830965723314</v>
@@ -5053,40 +5053,40 @@
         <v>420.4501281543865</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547437</v>
+        <v>574.0010487547436</v>
       </c>
       <c r="O11" t="n">
         <v>713.5940480809679</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598426</v>
+        <v>818.7605380598427</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963863</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963863</v>
+        <v>774.9388295947125</v>
       </c>
       <c r="U11" t="n">
-        <v>656.4519294175009</v>
+        <v>553.164529115827</v>
       </c>
       <c r="V11" t="n">
-        <v>461.1131255556986</v>
+        <v>553.164529115827</v>
       </c>
       <c r="W11" t="n">
-        <v>239.3388250768132</v>
+        <v>553.164529115827</v>
       </c>
       <c r="X11" t="n">
-        <v>17.56452459792773</v>
+        <v>493.3371361049933</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.56452459792773</v>
+        <v>271.5628356261079</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.56452459792773</v>
+        <v>243.4215621960307</v>
       </c>
       <c r="C12" t="n">
-        <v>17.56452459792773</v>
+        <v>243.4215621960307</v>
       </c>
       <c r="D12" t="n">
-        <v>17.56452459792773</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="E12" t="n">
-        <v>17.56452459792773</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F12" t="n">
         <v>17.56452459792773</v>
@@ -5120,52 +5120,52 @@
         <v>17.56452459792773</v>
       </c>
       <c r="J12" t="n">
-        <v>36.26919386777749</v>
+        <v>36.26919386777751</v>
       </c>
       <c r="K12" t="n">
-        <v>187.5233459174939</v>
+        <v>99.89115689943331</v>
       </c>
       <c r="L12" t="n">
-        <v>291.831555819289</v>
+        <v>204.1993668012285</v>
       </c>
       <c r="M12" t="n">
-        <v>421.3938484840355</v>
+        <v>333.761659465975</v>
       </c>
       <c r="N12" t="n">
-        <v>560.2207707018614</v>
+        <v>472.588581683801</v>
       </c>
       <c r="O12" t="n">
-        <v>678.2212654349609</v>
+        <v>590.5890764169004</v>
       </c>
       <c r="P12" t="n">
-        <v>765.0971737371258</v>
+        <v>677.4649847190653</v>
       </c>
       <c r="Q12" t="n">
-        <v>802.954143188124</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="R12" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="S12" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="T12" t="n">
-        <v>818.1365910907192</v>
+        <v>721.9122566950546</v>
       </c>
       <c r="U12" t="n">
-        <v>620.8352017296723</v>
+        <v>524.6108673340077</v>
       </c>
       <c r="V12" t="n">
-        <v>407.1236747227061</v>
+        <v>524.6108673340077</v>
       </c>
       <c r="W12" t="n">
-        <v>193.8905064590349</v>
+        <v>524.6108673340077</v>
       </c>
       <c r="X12" t="n">
-        <v>17.56452459792773</v>
+        <v>348.2848854729005</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.56452459792773</v>
+        <v>243.4215621960307</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.6578970362112</v>
+        <v>37.48702240764956</v>
       </c>
       <c r="C13" t="n">
         <v>17.56452459792773</v>
@@ -5199,52 +5199,52 @@
         <v>17.56452459792773</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792773</v>
+        <v>75.28691789969619</v>
       </c>
       <c r="K13" t="n">
-        <v>234.9255164972833</v>
+        <v>95.27272118859375</v>
       </c>
       <c r="L13" t="n">
-        <v>452.286508396639</v>
+        <v>312.6337130879494</v>
       </c>
       <c r="M13" t="n">
-        <v>493.3415546964289</v>
+        <v>353.6887593877393</v>
       </c>
       <c r="N13" t="n">
-        <v>536.6027017496592</v>
+        <v>443.504246097675</v>
       </c>
       <c r="O13" t="n">
-        <v>568.3345720612353</v>
+        <v>660.8652379970307</v>
       </c>
       <c r="P13" t="n">
-        <v>761.0116111609714</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="Q13" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="R13" t="n">
-        <v>878.2262298963863</v>
+        <v>878.2262298963864</v>
       </c>
       <c r="S13" t="n">
-        <v>853.9807984728675</v>
+        <v>702.809923844306</v>
       </c>
       <c r="T13" t="n">
-        <v>632.2064979939821</v>
+        <v>702.809923844306</v>
       </c>
       <c r="U13" t="n">
-        <v>632.2064979939821</v>
+        <v>702.809923844306</v>
       </c>
       <c r="V13" t="n">
-        <v>632.2064979939821</v>
+        <v>481.0356233654205</v>
       </c>
       <c r="W13" t="n">
-        <v>632.2064979939821</v>
+        <v>259.261322886535</v>
       </c>
       <c r="X13" t="n">
-        <v>410.4321975150966</v>
+        <v>37.48702240764956</v>
       </c>
       <c r="Y13" t="n">
-        <v>188.6578970362112</v>
+        <v>37.48702240764956</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.02966697418892</v>
+        <v>300.1820277594035</v>
       </c>
       <c r="C14" t="n">
-        <v>22.02966697418892</v>
+        <v>300.1820277594035</v>
       </c>
       <c r="D14" t="n">
-        <v>22.02966697418892</v>
+        <v>300.1820277594035</v>
       </c>
       <c r="E14" t="n">
-        <v>22.02966697418892</v>
+        <v>300.1820277594035</v>
       </c>
       <c r="F14" t="n">
-        <v>22.02966697418892</v>
+        <v>300.1820277594035</v>
       </c>
       <c r="G14" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="H14" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="I14" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="J14" t="n">
-        <v>81.61576146395998</v>
+        <v>81.6157614639604</v>
       </c>
       <c r="K14" t="n">
-        <v>191.4689708921981</v>
+        <v>191.4689708921988</v>
       </c>
       <c r="L14" t="n">
-        <v>342.6968046256461</v>
+        <v>342.6968046256475</v>
       </c>
       <c r="M14" t="n">
-        <v>523.7930303030039</v>
+        <v>523.7930303030056</v>
       </c>
       <c r="N14" t="n">
-        <v>709.6881746355235</v>
+        <v>709.6881746355257</v>
       </c>
       <c r="O14" t="n">
-        <v>879.8229072578256</v>
+        <v>879.8229072578281</v>
       </c>
       <c r="P14" t="n">
-        <v>1011.05605999693</v>
+        <v>1011.056059996933</v>
       </c>
       <c r="Q14" t="n">
-        <v>1090.096729993599</v>
+        <v>1090.096729993602</v>
       </c>
       <c r="R14" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="S14" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="T14" t="n">
-        <v>886.2324944250305</v>
+        <v>886.2324944250337</v>
       </c>
       <c r="U14" t="n">
-        <v>629.2991187054424</v>
+        <v>629.2991187054456</v>
       </c>
       <c r="V14" t="n">
-        <v>351.1467579202288</v>
+        <v>578.3343885446179</v>
       </c>
       <c r="W14" t="n">
-        <v>72.99439713501511</v>
+        <v>300.1820277594035</v>
       </c>
       <c r="X14" t="n">
-        <v>22.02966697418892</v>
+        <v>300.1820277594035</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.02966697418892</v>
+        <v>300.1820277594035</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>214.4459685065364</v>
+        <v>245.0667741001924</v>
       </c>
       <c r="C15" t="n">
-        <v>80.45089725548206</v>
+        <v>245.0667741001924</v>
       </c>
       <c r="D15" t="n">
-        <v>22.02966697418892</v>
+        <v>128.1696163195848</v>
       </c>
       <c r="E15" t="n">
-        <v>22.02966697418892</v>
+        <v>128.1696163195848</v>
       </c>
       <c r="F15" t="n">
-        <v>22.02966697418892</v>
+        <v>128.1696163195848</v>
       </c>
       <c r="G15" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="H15" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="I15" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="J15" t="n">
-        <v>49.89750862910159</v>
+        <v>200.641327769113</v>
       </c>
       <c r="K15" t="n">
-        <v>138.8386021699771</v>
+        <v>279.9246118954656</v>
       </c>
       <c r="L15" t="n">
-        <v>264.205391010658</v>
+        <v>405.2914007361468</v>
       </c>
       <c r="M15" t="n">
-        <v>418.3420520280846</v>
+        <v>559.4280617535737</v>
       </c>
       <c r="N15" t="n">
-        <v>582.3937530055709</v>
+        <v>723.4797627310604</v>
       </c>
       <c r="O15" t="n">
-        <v>723.4699922432202</v>
+        <v>864.55600196871</v>
       </c>
       <c r="P15" t="n">
-        <v>828.8662199038581</v>
+        <v>969.9522296293483</v>
       </c>
       <c r="Q15" t="n">
-        <v>1101.483348709446</v>
+        <v>1020.189542105038</v>
       </c>
       <c r="R15" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="S15" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="T15" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="U15" t="n">
-        <v>904.1884696463665</v>
+        <v>904.1884696463696</v>
       </c>
       <c r="V15" t="n">
-        <v>690.4769426394002</v>
+        <v>690.4769426394034</v>
       </c>
       <c r="W15" t="n">
-        <v>690.4769426394002</v>
+        <v>690.4769426394034</v>
       </c>
       <c r="X15" t="n">
-        <v>514.150960778293</v>
+        <v>514.1509607782962</v>
       </c>
       <c r="Y15" t="n">
-        <v>354.749001142123</v>
+        <v>385.369806735779</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.1230394124724</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="C16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="D16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="E16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="F16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="G16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="H16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="I16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="J16" t="n">
-        <v>22.02966697418892</v>
+        <v>22.02966697418898</v>
       </c>
       <c r="K16" t="n">
-        <v>51.4623172339769</v>
+        <v>51.4623172339771</v>
       </c>
       <c r="L16" t="n">
-        <v>254.3657812201077</v>
+        <v>254.3657812201085</v>
       </c>
       <c r="M16" t="n">
-        <v>526.9829100256957</v>
+        <v>526.9829100256973</v>
       </c>
       <c r="N16" t="n">
-        <v>799.6000388312837</v>
+        <v>799.6000388312859</v>
       </c>
       <c r="O16" t="n">
-        <v>1072.217167636872</v>
+        <v>1072.217167636875</v>
       </c>
       <c r="P16" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="Q16" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="R16" t="n">
-        <v>1101.483348709446</v>
+        <v>1101.483348709449</v>
       </c>
       <c r="S16" t="n">
-        <v>1101.483348709446</v>
+        <v>927.5128410918487</v>
       </c>
       <c r="T16" t="n">
-        <v>1101.483348709446</v>
+        <v>691.0094815344714</v>
       </c>
       <c r="U16" t="n">
-        <v>1101.483348709446</v>
+        <v>691.0094815344714</v>
       </c>
       <c r="V16" t="n">
-        <v>1101.483348709446</v>
+        <v>417.1237364739933</v>
       </c>
       <c r="W16" t="n">
-        <v>843.9023065580686</v>
+        <v>417.1237364739933</v>
       </c>
       <c r="X16" t="n">
-        <v>605.5584444177521</v>
+        <v>246.7653655854243</v>
       </c>
       <c r="Y16" t="n">
-        <v>380.8227458065168</v>
+        <v>22.02966697418898</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1962.635848753039</v>
+        <v>747.9648326684344</v>
       </c>
       <c r="C17" t="n">
-        <v>1552.511258066309</v>
+        <v>747.9648326684344</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.047328159369</v>
+        <v>747.9648326684344</v>
       </c>
       <c r="E17" t="n">
-        <v>733.707112676266</v>
+        <v>333.6246171853311</v>
       </c>
       <c r="F17" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G17" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H17" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I17" t="n">
-        <v>44.64574590746531</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J17" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K17" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L17" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M17" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N17" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O17" t="n">
         <v>1568.017893256777</v>
@@ -5542,25 +5542,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V17" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W17" t="n">
-        <v>2024.321847303436</v>
+        <v>1558.829410163971</v>
       </c>
       <c r="X17" t="n">
-        <v>2024.321847303436</v>
+        <v>1158.186012332924</v>
       </c>
       <c r="Y17" t="n">
-        <v>1962.635848753039</v>
+        <v>1158.186012332924</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C18" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D18" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E18" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F18" t="n">
         <v>204.8233649521798</v>
@@ -5636,10 +5636,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X18" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y18" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>756.8673606094806</v>
+        <v>926.4511644259496</v>
       </c>
       <c r="C19" t="n">
-        <v>585.7739881711971</v>
+        <v>755.3577919876661</v>
       </c>
       <c r="D19" t="n">
-        <v>426.2793434941071</v>
+        <v>755.3577919876661</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3685283624266</v>
+        <v>594.4469768559857</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3685283624266</v>
+        <v>429.8158509665769</v>
       </c>
       <c r="G19" t="n">
-        <v>265.3685283624266</v>
+        <v>263.6195558006888</v>
       </c>
       <c r="H19" t="n">
-        <v>125.1329440640648</v>
+        <v>123.3839715023271</v>
       </c>
       <c r="I19" t="n">
         <v>40.48643694606871</v>
@@ -5682,16 +5682,16 @@
         <v>815.6863250168146</v>
       </c>
       <c r="M19" t="n">
-        <v>921.9301938884097</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N19" t="n">
-        <v>1136.070278545364</v>
+        <v>1577.418998169941</v>
       </c>
       <c r="O19" t="n">
-        <v>1541.657620062865</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P19" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q19" t="n">
         <v>2024.321847303436</v>
@@ -5703,22 +5703,22 @@
         <v>1856.300096062671</v>
       </c>
       <c r="T19" t="n">
-        <v>1621.255221375984</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="U19" t="n">
-        <v>1621.255221375984</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="V19" t="n">
-        <v>1621.255221375984</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.646627755077</v>
+        <v>1577.230431571546</v>
       </c>
       <c r="X19" t="n">
-        <v>1169.30276561476</v>
+        <v>1338.886569431229</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.5670670035249</v>
+        <v>1114.150870819994</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>444.9503668530082</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="C20" t="n">
-        <v>444.9503668530082</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D20" t="n">
-        <v>40.48643694606873</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E20" t="n">
-        <v>40.48643694606873</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F20" t="n">
         <v>40.48643694606873</v>
@@ -5755,13 +5755,13 @@
         <v>167.5334271492899</v>
       </c>
       <c r="K20" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L20" t="n">
-        <v>641.1850750879078</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M20" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501309</v>
       </c>
       <c r="N20" t="n">
         <v>1272.218803576257</v>
@@ -5779,25 +5779,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S20" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T20" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U20" t="n">
-        <v>1980.128293264316</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V20" t="n">
-        <v>1630.290738600797</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W20" t="n">
-        <v>1246.530437735966</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="X20" t="n">
-        <v>845.8870399049181</v>
+        <v>1286.078244139974</v>
       </c>
       <c r="Y20" t="n">
-        <v>444.9503668530082</v>
+        <v>1286.078244139974</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C21" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D21" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E21" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F21" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G21" t="n">
-        <v>99.09057352692774</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H21" t="n">
         <v>40.48643694606873</v>
@@ -5831,28 +5831,28 @@
         <v>43.01083102505507</v>
       </c>
       <c r="J21" t="n">
-        <v>108.5806640902074</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K21" t="n">
-        <v>252.3026566214989</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L21" t="n">
-        <v>753.3223138290994</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M21" t="n">
-        <v>1008.570531588067</v>
+        <v>963.2318628767576</v>
       </c>
       <c r="N21" t="n">
-        <v>1487.424908378268</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O21" t="n">
-        <v>1723.446597132247</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P21" t="n">
-        <v>1905.04491856843</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R21" t="n">
         <v>2024.321847303436</v>
@@ -5867,16 +5867,16 @@
         <v>1588.143959212511</v>
       </c>
       <c r="V21" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W21" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X21" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y21" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.9249114068106</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="C22" t="n">
-        <v>264.9249114068106</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="D22" t="n">
-        <v>264.9249114068106</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="E22" t="n">
-        <v>264.9249114068106</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="F22" t="n">
-        <v>264.9249114068106</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="G22" t="n">
-        <v>98.72861624092246</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H22" t="n">
-        <v>98.72861624092246</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I22" t="n">
         <v>40.48643694606873</v>
@@ -5913,49 +5913,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K22" t="n">
-        <v>219.6034981877564</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L22" t="n">
-        <v>633.0972772623925</v>
+        <v>506.8233170565554</v>
       </c>
       <c r="M22" t="n">
-        <v>1084.307495648273</v>
+        <v>958.033535442436</v>
       </c>
       <c r="N22" t="n">
-        <v>1523.241722224319</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O22" t="n">
-        <v>1928.829063741821</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P22" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q22" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R22" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S22" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T22" t="n">
-        <v>1751.400239417419</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U22" t="n">
-        <v>1468.65958810401</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V22" t="n">
-        <v>1194.773843043532</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W22" t="n">
-        <v>915.7041785524068</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X22" t="n">
-        <v>677.3603164120902</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.6246178008549</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1357.228169979181</v>
+        <v>1276.105369586051</v>
       </c>
       <c r="C23" t="n">
-        <v>947.1035792924512</v>
+        <v>865.9807788993206</v>
       </c>
       <c r="D23" t="n">
-        <v>947.1035792924512</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="E23" t="n">
-        <v>532.7633638093479</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F23" t="n">
-        <v>111.7329517630354</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I23" t="n">
-        <v>44.6457459074652</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492893</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K23" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501304</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O23" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P23" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q23" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R23" t="n">
         <v>2024.321847303436</v>
@@ -6022,19 +6022,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U23" t="n">
-        <v>1767.449349643671</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V23" t="n">
-        <v>1767.449349643671</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W23" t="n">
-        <v>1767.449349643671</v>
+        <v>1677.042042637961</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.449349643671</v>
+        <v>1677.042042637961</v>
       </c>
       <c r="Y23" t="n">
-        <v>1767.449349643671</v>
+        <v>1276.105369586051</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579546</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G24" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I24" t="n">
-        <v>43.01083102505508</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J24" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>495.9710605961322</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L24" t="n">
-        <v>707.9836451177896</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M24" t="n">
-        <v>963.2318628767578</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N24" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O24" t="n">
-        <v>1467.092931389887</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.69125282607</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q24" t="n">
         <v>2006.22131270252</v>
@@ -6098,7 +6098,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U24" t="n">
         <v>1588.14395921251</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>417.5205446787849</v>
+        <v>377.7761045502403</v>
       </c>
       <c r="C25" t="n">
-        <v>417.5205446787849</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="D25" t="n">
-        <v>417.5205446787849</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="E25" t="n">
-        <v>256.6097295471043</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F25" t="n">
-        <v>91.9786036576956</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G25" t="n">
-        <v>91.9786036576956</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H25" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J25" t="n">
-        <v>62.60916429909253</v>
+        <v>62.60916429909251</v>
       </c>
       <c r="K25" t="n">
-        <v>219.6034981877564</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L25" t="n">
-        <v>633.0972772623925</v>
+        <v>544.404767799764</v>
       </c>
       <c r="M25" t="n">
-        <v>1084.307495648273</v>
+        <v>995.6149861856446</v>
       </c>
       <c r="N25" t="n">
-        <v>1523.241722224319</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O25" t="n">
-        <v>1928.829063741821</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P25" t="n">
-        <v>1998.558115949588</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
@@ -6174,25 +6174,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.300096062672</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T25" t="n">
-        <v>1621.255221375985</v>
+        <v>1864.251432560849</v>
       </c>
       <c r="U25" t="n">
-        <v>1621.255221375985</v>
+        <v>1581.51078124744</v>
       </c>
       <c r="V25" t="n">
-        <v>1347.369476315507</v>
+        <v>1307.625036186962</v>
       </c>
       <c r="W25" t="n">
-        <v>1068.299811824381</v>
+        <v>1028.555371695837</v>
       </c>
       <c r="X25" t="n">
-        <v>829.9559496840645</v>
+        <v>790.21150955552</v>
       </c>
       <c r="Y25" t="n">
-        <v>605.2202510728292</v>
+        <v>565.4758109442847</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>733.707112676266</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="C26" t="n">
-        <v>733.707112676266</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="D26" t="n">
-        <v>733.707112676266</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="E26" t="n">
-        <v>733.707112676266</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="F26" t="n">
-        <v>733.707112676266</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G26" t="n">
         <v>327.3287545781499</v>
@@ -6223,19 +6223,19 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746553</v>
+        <v>44.64574590746588</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492902</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
@@ -6247,31 +6247,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R26" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.980245779116</v>
+        <v>1950.749202761096</v>
       </c>
       <c r="T26" t="n">
-        <v>1741.060562830598</v>
+        <v>1738.829519812579</v>
       </c>
       <c r="U26" t="n">
-        <v>1484.188065170833</v>
+        <v>1481.957022152813</v>
       </c>
       <c r="V26" t="n">
-        <v>1134.350510507313</v>
+        <v>1132.119467489294</v>
       </c>
       <c r="W26" t="n">
-        <v>1134.350510507313</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="X26" t="n">
-        <v>733.707112676266</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="Y26" t="n">
-        <v>733.707112676266</v>
+        <v>748.3591666244624</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606873</v>
@@ -6308,31 +6308,31 @@
         <v>108.5806640902074</v>
       </c>
       <c r="K27" t="n">
-        <v>609.6003212978078</v>
+        <v>252.3026566214988</v>
       </c>
       <c r="L27" t="n">
-        <v>821.6129058194651</v>
+        <v>464.3152411431561</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.585528619119</v>
+        <v>719.5634589021241</v>
       </c>
       <c r="N27" t="n">
-        <v>1487.424908378268</v>
+        <v>987.4028386612733</v>
       </c>
       <c r="O27" t="n">
-        <v>1723.446597132247</v>
+        <v>1235.633617581756</v>
       </c>
       <c r="P27" t="n">
-        <v>1905.04491856843</v>
+        <v>1417.231939017939</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S27" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
         <v>1785.412051570318</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>322.4795997594207</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="C28" t="n">
-        <v>322.4795997594207</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="D28" t="n">
-        <v>162.9849550823307</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="E28" t="n">
-        <v>162.9849550823307</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9849550823307</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="G28" t="n">
-        <v>162.9849550823307</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H28" t="n">
         <v>125.1329440640648</v>
@@ -6387,19 +6387,19 @@
         <v>62.60916429909251</v>
       </c>
       <c r="K28" t="n">
-        <v>337.1911823108422</v>
+        <v>303.672364228924</v>
       </c>
       <c r="L28" t="n">
-        <v>750.6849613854781</v>
+        <v>717.16614330356</v>
       </c>
       <c r="M28" t="n">
-        <v>1201.895179771359</v>
+        <v>823.4100121751551</v>
       </c>
       <c r="N28" t="n">
-        <v>1640.829406347405</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O28" t="n">
-        <v>1928.829063741821</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P28" t="n">
         <v>1998.558115949588</v>
@@ -6417,19 +6417,19 @@
         <v>1621.255221375985</v>
       </c>
       <c r="U28" t="n">
-        <v>1338.514570062576</v>
+        <v>1469.103205059627</v>
       </c>
       <c r="V28" t="n">
-        <v>1064.628825002098</v>
+        <v>1195.217459999149</v>
       </c>
       <c r="W28" t="n">
-        <v>785.5591605109726</v>
+        <v>916.1477955080229</v>
       </c>
       <c r="X28" t="n">
-        <v>547.215298370656</v>
+        <v>677.8039333677062</v>
       </c>
       <c r="Y28" t="n">
-        <v>322.4795997594207</v>
+        <v>453.0682347564709</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>500.3768416212482</v>
+        <v>1171.769365830321</v>
       </c>
       <c r="C29" t="n">
-        <v>500.3768416212482</v>
+        <v>1171.769365830321</v>
       </c>
       <c r="D29" t="n">
-        <v>500.3768416212482</v>
+        <v>767.3054359233815</v>
       </c>
       <c r="E29" t="n">
-        <v>500.3768416212482</v>
+        <v>767.3054359233815</v>
       </c>
       <c r="F29" t="n">
-        <v>446.8647950441848</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H29" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.6457459074656</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K29" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O29" t="n">
         <v>1568.017893256777</v>
@@ -6487,28 +6487,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S29" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T29" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354918</v>
       </c>
       <c r="U29" t="n">
-        <v>1685.717213369037</v>
+        <v>1555.529666695152</v>
       </c>
       <c r="V29" t="n">
-        <v>1685.717213369037</v>
+        <v>1555.529666695152</v>
       </c>
       <c r="W29" t="n">
-        <v>1301.956912504206</v>
+        <v>1171.769365830321</v>
       </c>
       <c r="X29" t="n">
-        <v>901.3135146731581</v>
+        <v>1171.769365830321</v>
       </c>
       <c r="Y29" t="n">
-        <v>500.3768416212482</v>
+        <v>1171.769365830321</v>
       </c>
     </row>
     <row r="30">
@@ -6539,34 +6539,34 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505504</v>
       </c>
       <c r="J30" t="n">
-        <v>208.7594707336913</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4814632649828</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L30" t="n">
-        <v>564.4940477866401</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M30" t="n">
-        <v>819.7422655456081</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N30" t="n">
-        <v>1087.581645304757</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O30" t="n">
-        <v>1323.603334058737</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P30" t="n">
-        <v>1505.20165549492</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.8016446061403</v>
+        <v>581.8713090972655</v>
       </c>
       <c r="C31" t="n">
-        <v>302.8016446061403</v>
+        <v>410.777936658982</v>
       </c>
       <c r="D31" t="n">
-        <v>286.0437591957453</v>
+        <v>410.777936658982</v>
       </c>
       <c r="E31" t="n">
-        <v>125.1329440640648</v>
+        <v>410.777936658982</v>
       </c>
       <c r="F31" t="n">
-        <v>125.1329440640648</v>
+        <v>410.777936658982</v>
       </c>
       <c r="G31" t="n">
-        <v>125.1329440640648</v>
+        <v>244.5816414930939</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1329440640648</v>
+        <v>104.3460571947321</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606871</v>
@@ -6624,34 +6624,34 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>219.6034981877563</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L31" t="n">
-        <v>633.0972772623923</v>
+        <v>561.0005930021771</v>
       </c>
       <c r="M31" t="n">
-        <v>1084.307495648273</v>
+        <v>1012.210811388058</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.241722224319</v>
+        <v>1451.145037964104</v>
       </c>
       <c r="O31" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949587</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.276972616749</v>
+        <v>1789.276972616748</v>
       </c>
       <c r="U31" t="n">
         <v>1506.53632130334</v>
@@ -6660,13 +6660,13 @@
         <v>1232.650576242862</v>
       </c>
       <c r="W31" t="n">
-        <v>953.5809117517365</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="X31" t="n">
-        <v>715.2370496114199</v>
+        <v>994.3067141025451</v>
       </c>
       <c r="Y31" t="n">
-        <v>490.5013510001846</v>
+        <v>769.5710154913098</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1674.484292639916</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="C32" t="n">
-        <v>1264.359701953187</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D32" t="n">
-        <v>1264.359701953187</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E32" t="n">
-        <v>850.0194864700834</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F32" t="n">
-        <v>428.9890744237709</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G32" t="n">
         <v>40.48643694606871</v>
@@ -6697,10 +6697,10 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746552</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K32" t="n">
         <v>372.2593058752964</v>
@@ -6709,10 +6709,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O32" t="n">
         <v>1568.017893256777</v>
@@ -6727,25 +6727,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V32" t="n">
-        <v>1674.484292639916</v>
+        <v>1592.752156365283</v>
       </c>
       <c r="W32" t="n">
-        <v>1674.484292639916</v>
+        <v>1276.500462306532</v>
       </c>
       <c r="X32" t="n">
-        <v>1674.484292639916</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="Y32" t="n">
-        <v>1674.484292639916</v>
+        <v>875.8570644754844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J33" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K33" t="n">
-        <v>495.9710605961321</v>
+        <v>664.3550098615119</v>
       </c>
       <c r="L33" t="n">
-        <v>707.9836451177894</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M33" t="n">
-        <v>963.2318628767574</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.071242635907</v>
+        <v>1399.455191901286</v>
       </c>
       <c r="O33" t="n">
-        <v>1467.092931389886</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.691252826069</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q33" t="n">
         <v>1918.251596225539</v>
@@ -6821,10 +6821,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>134.7798933653758</v>
+        <v>682.6428147380108</v>
       </c>
       <c r="C34" t="n">
-        <v>134.7798933653758</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="D34" t="n">
-        <v>134.7798933653758</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="E34" t="n">
-        <v>134.7798933653758</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F34" t="n">
-        <v>40.48643694606871</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G34" t="n">
-        <v>40.48643694606871</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H34" t="n">
         <v>40.48643694606871</v>
@@ -6858,22 +6858,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K34" t="n">
-        <v>195.9123523564644</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L34" t="n">
-        <v>609.4061314311003</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M34" t="n">
-        <v>1060.616349816981</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N34" t="n">
-        <v>1499.550576393027</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O34" t="n">
-        <v>1905.137917910529</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P34" t="n">
         <v>1998.558115949587</v>
@@ -6894,16 +6894,16 @@
         <v>1338.514570062576</v>
       </c>
       <c r="V34" t="n">
-        <v>1064.628825002098</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="W34" t="n">
-        <v>785.5591605109721</v>
+        <v>1145.722375489563</v>
       </c>
       <c r="X34" t="n">
-        <v>547.2152983706555</v>
+        <v>907.3785133492461</v>
       </c>
       <c r="Y34" t="n">
-        <v>322.4795997594202</v>
+        <v>682.6428147380108</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>956.2914969272704</v>
+        <v>1162.699382107566</v>
       </c>
       <c r="C35" t="n">
-        <v>865.9807788993206</v>
+        <v>1162.699382107566</v>
       </c>
       <c r="D35" t="n">
-        <v>461.5168489923811</v>
+        <v>1162.699382107566</v>
       </c>
       <c r="E35" t="n">
-        <v>461.5168489923811</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="F35" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L35" t="n">
         <v>641.1850750879075</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576256</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303435</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="U35" t="n">
-        <v>1767.44934964367</v>
+        <v>1913.473609822995</v>
       </c>
       <c r="V35" t="n">
-        <v>1767.44934964367</v>
+        <v>1563.636055159476</v>
       </c>
       <c r="W35" t="n">
-        <v>1767.44934964367</v>
+        <v>1563.636055159476</v>
       </c>
       <c r="X35" t="n">
-        <v>1767.44934964367</v>
+        <v>1563.636055159476</v>
       </c>
       <c r="Y35" t="n">
-        <v>1366.51267659176</v>
+        <v>1162.699382107566</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521798</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606871</v>
@@ -7028,19 +7028,19 @@
         <v>963.2318628767574</v>
       </c>
       <c r="N36" t="n">
-        <v>1399.455191901286</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O36" t="n">
-        <v>1635.476880655266</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P36" t="n">
-        <v>1817.075202091449</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q36" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R36" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S36" t="n">
         <v>1939.686028373151</v>
@@ -7055,13 +7055,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W36" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807658</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445958</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.123755505692</v>
+        <v>211.5798093843522</v>
       </c>
       <c r="C37" t="n">
-        <v>202.0303830674085</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0303830674085</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0303830674085</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0303830674085</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G37" t="n">
         <v>40.48643694606871</v>
@@ -7095,22 +7095,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909248</v>
       </c>
       <c r="K37" t="n">
-        <v>219.6034981877558</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L37" t="n">
-        <v>633.0972772623918</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M37" t="n">
-        <v>1084.307495648272</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N37" t="n">
-        <v>1523.241722224319</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O37" t="n">
-        <v>1928.82906374182</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P37" t="n">
         <v>1998.558115949587</v>
@@ -7134,13 +7134,13 @@
         <v>1064.628825002097</v>
       </c>
       <c r="W37" t="n">
-        <v>785.5591605109717</v>
+        <v>862.3590765299484</v>
       </c>
       <c r="X37" t="n">
-        <v>785.5591605109717</v>
+        <v>624.0152143896319</v>
       </c>
       <c r="Y37" t="n">
-        <v>560.8234618997363</v>
+        <v>399.2795157783966</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>875.8570644754844</v>
+        <v>1614.100667638946</v>
       </c>
       <c r="C38" t="n">
-        <v>875.8570644754844</v>
+        <v>1203.976076952216</v>
       </c>
       <c r="D38" t="n">
-        <v>875.8570644754844</v>
+        <v>799.5121470452764</v>
       </c>
       <c r="E38" t="n">
-        <v>461.5168489923811</v>
+        <v>385.1719315621731</v>
       </c>
       <c r="F38" t="n">
-        <v>40.48643694606871</v>
+        <v>385.1719315621731</v>
       </c>
       <c r="G38" t="n">
         <v>40.48643694606871</v>
@@ -7171,22 +7171,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746554</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7198,28 +7198,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R38" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T38" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="U38" t="n">
-        <v>1555.529666695153</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="V38" t="n">
-        <v>1286.078244139974</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="W38" t="n">
-        <v>1286.078244139974</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="X38" t="n">
-        <v>1286.078244139974</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="Y38" t="n">
-        <v>1286.078244139974</v>
+        <v>2024.321847303435</v>
       </c>
     </row>
     <row r="39">
@@ -7229,55 +7229,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579544</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521794</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K39" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L39" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M39" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N39" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R39" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S39" t="n">
         <v>1939.686028373151</v>
@@ -7292,13 +7292,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W39" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807654</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445954</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1048.621856671101</v>
+        <v>366.028377967158</v>
       </c>
       <c r="C40" t="n">
-        <v>877.5284842328172</v>
+        <v>366.028377967158</v>
       </c>
       <c r="D40" t="n">
-        <v>718.0338395557271</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E40" t="n">
-        <v>557.1230244240467</v>
+        <v>205.1175628354774</v>
       </c>
       <c r="F40" t="n">
-        <v>392.4918985346379</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G40" t="n">
-        <v>226.2956033687498</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H40" t="n">
-        <v>86.06001907038808</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J40" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909248</v>
       </c>
       <c r="K40" t="n">
-        <v>402.1925459421785</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L40" t="n">
-        <v>506.8233170565552</v>
+        <v>544.4047677997639</v>
       </c>
       <c r="M40" t="n">
-        <v>958.0335354424358</v>
+        <v>995.6149861856445</v>
       </c>
       <c r="N40" t="n">
-        <v>1396.967762018482</v>
+        <v>1434.549212761691</v>
       </c>
       <c r="O40" t="n">
-        <v>1802.555103535984</v>
+        <v>1840.136554279192</v>
       </c>
       <c r="P40" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q40" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R40" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S40" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T40" t="n">
-        <v>1789.276972616749</v>
+        <v>1852.503705977766</v>
       </c>
       <c r="U40" t="n">
-        <v>1789.276972616749</v>
+        <v>1569.763054664358</v>
       </c>
       <c r="V40" t="n">
-        <v>1515.391227556271</v>
+        <v>1295.87730960388</v>
       </c>
       <c r="W40" t="n">
-        <v>1236.321563065145</v>
+        <v>1016.807645112754</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.321563065145</v>
+        <v>778.4637829724377</v>
       </c>
       <c r="Y40" t="n">
-        <v>1236.321563065145</v>
+        <v>553.7280843612024</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>861.2050105272881</v>
+        <v>757.2493392810139</v>
       </c>
       <c r="C41" t="n">
-        <v>861.2050105272881</v>
+        <v>757.2493392810139</v>
       </c>
       <c r="D41" t="n">
-        <v>861.2050105272881</v>
+        <v>757.2493392810139</v>
       </c>
       <c r="E41" t="n">
-        <v>446.8647950441849</v>
+        <v>757.2493392810139</v>
       </c>
       <c r="F41" t="n">
-        <v>446.8647950441849</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I41" t="n">
         <v>44.64574590746552</v>
@@ -7414,25 +7414,25 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752973</v>
+        <v>372.2593058752963</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879087</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501314</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R41" t="n">
         <v>2024.321847303436</v>
@@ -7441,22 +7441,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U41" t="n">
-        <v>1473.79753042052</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V41" t="n">
-        <v>1271.426190191778</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W41" t="n">
-        <v>1271.426190191778</v>
+        <v>1558.829410163971</v>
       </c>
       <c r="X41" t="n">
-        <v>1271.426190191778</v>
+        <v>1158.186012332924</v>
       </c>
       <c r="Y41" t="n">
-        <v>1271.426190191778</v>
+        <v>757.2493392810139</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090094</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579551</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773475</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696755</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521801</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G42" t="n">
         <v>99.09057352692761</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505506</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J42" t="n">
-        <v>231.6259446442777</v>
+        <v>129.6510169101179</v>
       </c>
       <c r="K42" t="n">
-        <v>375.3479371755691</v>
+        <v>273.3730094414094</v>
       </c>
       <c r="L42" t="n">
-        <v>876.3675943831696</v>
+        <v>485.3855939630667</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.615812142138</v>
+        <v>986.405251170667</v>
       </c>
       <c r="N42" t="n">
-        <v>1399.455191901287</v>
+        <v>1487.424908378267</v>
       </c>
       <c r="O42" t="n">
-        <v>1635.476880655266</v>
+        <v>1723.446597132247</v>
       </c>
       <c r="P42" t="n">
-        <v>1817.075202091449</v>
+        <v>1905.04491856843</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R42" t="n">
         <v>2024.321847303436</v>
@@ -7523,19 +7523,19 @@
         <v>1785.412051570318</v>
       </c>
       <c r="U42" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W42" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.873282080766</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.471322444596</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.6873896666187</v>
+        <v>1087.694781664777</v>
       </c>
       <c r="C43" t="n">
-        <v>576.6873896666187</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="D43" t="n">
-        <v>576.6873896666187</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="E43" t="n">
-        <v>415.7765745349382</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F43" t="n">
-        <v>251.1454486455295</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G43" t="n">
-        <v>84.94915347964138</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J43" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>290.7403161622242</v>
+        <v>219.6034981877563</v>
       </c>
       <c r="L43" t="n">
-        <v>704.2340952368602</v>
+        <v>633.0972772623923</v>
       </c>
       <c r="M43" t="n">
-        <v>1155.444313622741</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N43" t="n">
-        <v>1262.344238751201</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.931580268703</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949588</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
@@ -7599,22 +7599,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T43" t="n">
-        <v>1789.276972616749</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U43" t="n">
-        <v>1506.536321303341</v>
+        <v>1741.581195990027</v>
       </c>
       <c r="V43" t="n">
-        <v>1506.536321303341</v>
+        <v>1554.464152549947</v>
       </c>
       <c r="W43" t="n">
-        <v>1227.466656812215</v>
+        <v>1275.394488058822</v>
       </c>
       <c r="X43" t="n">
-        <v>989.1227946718984</v>
+        <v>1275.394488058822</v>
       </c>
       <c r="Y43" t="n">
-        <v>764.3870960606631</v>
+        <v>1275.394488058822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1532.368531364313</v>
+        <v>1614.100667638947</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.243940677583</v>
+        <v>1203.976076952217</v>
       </c>
       <c r="D44" t="n">
-        <v>717.7800107706439</v>
+        <v>1203.976076952217</v>
       </c>
       <c r="E44" t="n">
-        <v>461.5168489923811</v>
+        <v>789.6358614691135</v>
       </c>
       <c r="F44" t="n">
-        <v>40.48643694606872</v>
+        <v>368.605449422801</v>
       </c>
       <c r="G44" t="n">
         <v>40.48643694606872</v>
@@ -7645,25 +7645,25 @@
         <v>40.48643694606872</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746588</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492902</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752967</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P44" t="n">
         <v>1806.502667397418</v>
@@ -7675,25 +7675,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="I45" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J45" t="n">
-        <v>108.5806640902073</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>609.6003212978078</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L45" t="n">
-        <v>821.6129058194651</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M45" t="n">
-        <v>1076.861123578433</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.700503337582</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O45" t="n">
-        <v>1580.722192091562</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P45" t="n">
-        <v>1762.320513527744</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q45" t="n">
         <v>1918.251596225539</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1087.694781664777</v>
+        <v>696.5902091699103</v>
       </c>
       <c r="C46" t="n">
-        <v>916.6014092264938</v>
+        <v>525.4968367316268</v>
       </c>
       <c r="D46" t="n">
-        <v>757.1067645494038</v>
+        <v>366.0021920545368</v>
       </c>
       <c r="E46" t="n">
-        <v>596.1959494177233</v>
+        <v>205.0913769228563</v>
       </c>
       <c r="F46" t="n">
-        <v>431.5648235283147</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G46" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606872</v>
@@ -7809,22 +7809,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>219.6034981877565</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L46" t="n">
-        <v>633.0972772623925</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.307495648273</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.241722224319</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O46" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7833,25 +7833,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U46" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="V46" t="n">
-        <v>1750.436102242958</v>
+        <v>1347.369476315507</v>
       </c>
       <c r="W46" t="n">
-        <v>1738.474048810373</v>
+        <v>1347.369476315507</v>
       </c>
       <c r="X46" t="n">
-        <v>1500.130186670057</v>
+        <v>1109.02561417519</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.394488058822</v>
+        <v>884.2899155639547</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.70128436951476</v>
+        <v>14.70128436951475</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>88.51736264450568</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>164.5497734609321</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>12.82588865527175</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391843</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>199.368877384301</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>181.4890873650642</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>47.02458551182363</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>187.5041632199793</v>
       </c>
       <c r="P13" t="n">
-        <v>174.9949904117742</v>
+        <v>199.9282760679556</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>9.150849970123431</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.32829899266264</v>
+        <v>11.3282989926626</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>152.2664839798093</v>
       </c>
       <c r="K15" t="n">
-        <v>9.755363044972825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.6260771009077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.743343305626077</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.545747926784529</v>
+        <v>1.54574792678445</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>154.6747039303292</v>
+        <v>154.6747039303296</v>
       </c>
       <c r="M16" t="n">
-        <v>221.0264959536709</v>
+        <v>221.0264959536715</v>
       </c>
       <c r="N16" t="n">
-        <v>219.1042405063255</v>
+        <v>219.1042405063261</v>
       </c>
       <c r="O16" t="n">
-        <v>231.7094281508407</v>
+        <v>231.7094281508413</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.273397238671855</v>
+        <v>2.273397238671755</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.3193388037189</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9330,19 +9330,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>108.3233934631245</v>
+        <v>205.6793228674601</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>291.9263360464072</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>213.1464616475263</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>23.93045033463839</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>5.167781085620092</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>258.9430967094552</v>
+        <v>239.1776382754172</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>89.58839339659424</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9813,7 +9813,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>89.58839339659414</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>360.9067319962717</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>144.166065697662</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>12.33241430959919</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>403.8820839126366</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>174.5064399028243</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>199.4818942380356</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1907137812969</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>403.8820839126365</v>
+        <v>170.0847972377568</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>23.93045033463825</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>59.89230224281371</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10284,13 +10284,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>170.0847972377573</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>23.93045033463834</v>
+        <v>89.58839339659417</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>170.0847972377572</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>170.0847972377568</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>23.93045033463783</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>89.58839339659372</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>258.9430967094555</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.167781085619879</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>89.58839339659372</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>124.2881621758286</v>
+        <v>1.517726232538578</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>291.9263360464072</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>248.2539792410428</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>235.5356337863142</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>95.78582202602003</v>
+        <v>23.93045033463827</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,13 +11229,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>360.9067319962716</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.30776622596406</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11457,7 +11457,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>23.93045033463848</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11466,16 +11466,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>78.12986811408999</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517527</v>
       </c>
       <c r="G11" t="n">
         <v>403.2510401841353</v>
@@ -23278,7 +23278,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380173</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>34.82213246243157</v>
+        <v>34.82213246243154</v>
       </c>
       <c r="V11" t="n">
-        <v>152.9537632936999</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>160.3661403820865</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>177.0804063786404</v>
+        <v>337.4078447720116</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472942</v>
       </c>
     </row>
     <row r="12">
@@ -23342,19 +23342,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991137</v>
+        <v>62.85721528991136</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>93.09630611656611</v>
       </c>
       <c r="T12" t="n">
-        <v>95.26209105170807</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>53.9932499957072</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>149.6591658822761</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23436,7 +23436,7 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>96.43258009724632</v>
+        <v>96.4325800972463</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>56.3856723961843</v>
       </c>
       <c r="S13" t="n">
-        <v>149.6591658822759</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.9326970279069</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
         <v>279.9361575053235</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>51.59033013577667</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>56.72241037211776</v>
       </c>
       <c r="X13" t="n">
-        <v>16.40386604481688</v>
+        <v>16.40386604481685</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.931784151026363</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.0679405074351</v>
+        <v>127.6971033300728</v>
       </c>
       <c r="H14" t="n">
         <v>291.6893039039227</v>
       </c>
       <c r="I14" t="n">
-        <v>24.84282015782117</v>
+        <v>24.84282015782107</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.08214241585367</v>
+        <v>98.08214241585361</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>70.96834193952259</v>
+        <v>295.8840962576647</v>
       </c>
       <c r="W14" t="n">
-        <v>104.5518606788216</v>
+        <v>104.5518606788208</v>
       </c>
       <c r="X14" t="n">
-        <v>346.1818809935191</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>57.89116822432128</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -23588,10 +23588,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.0785498519419</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>61.91106066572941</v>
+        <v>61.91106066572939</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>91.27661273172933</v>
+        <v>91.27661273172932</v>
       </c>
       <c r="T15" t="n">
         <v>154.3559578564105</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>30.31459753771632</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23673,7 +23673,7 @@
         <v>141.8377693521858</v>
       </c>
       <c r="I16" t="n">
-        <v>93.96264049941308</v>
+        <v>93.96264049941306</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.69270950293064</v>
+        <v>52.69270950293058</v>
       </c>
       <c r="S16" t="n">
-        <v>172.2308025414246</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>234.1383259618034</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9316775665125</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>21.27373611635068</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>67.30563633923009</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>126.6133094889796</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.8004861190321</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.858167756498</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.731482836120364</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U19" t="n">
         <v>279.9132448002744</v>
@@ -23952,7 +23952,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>64.80646016151604</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>402.3145745171349</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U20" t="n">
-        <v>210.5521541844392</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.9943843159642825</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>125.9260295492376</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H22" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>26.14028454491095</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S22" t="n">
         <v>166.3415337283568</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>331.7805248483379</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
         <v>283.9738944557603</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188677</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>36.11569123736263</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>87.85598341086749</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
         <v>83.80004204681615</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.49796586733679</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>74.2247153446591</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.28662940280941</v>
+        <v>8.077896814970018</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24618,7 +24618,7 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>101.3597375472949</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>129.2827486470798</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>363.8431818145565</v>
+        <v>383.5577679112049</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>141.3093916740281</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>20.57901800063939</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>17.69696341420973</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
         <v>283.9738944557603</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.8004861190321</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>66.83352073801927</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,13 +25086,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>69.63429277540061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>83.80004204681616</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>85.41469521893134</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>316.6157339321923</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>225.478832489419</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>4.605825554102836</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>76.03191685878699</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>61.0759348471916</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25444,13 +25444,13 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>79.58227078725685</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>38.68219574373998</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>228.9359997557648</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>393.5133035871488</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>145.9915522904289</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>94.81513908714118</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>85.90101460419419</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>156.4962831677921</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>77.47675216516996</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
         <v>209.8004861190321</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.0259240534949754</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9132448002744</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>264.4365349479557</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>315497.1259057454</v>
+        <v>315497.1259057455</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360826.4453086621</v>
+        <v>360826.4453086628</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>547757.7174853584</v>
+        <v>547757.7174853582</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>547757.7174853585</v>
+        <v>547757.7174853584</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>547757.7174853585</v>
+        <v>547757.7174853584</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>547757.7174853584</v>
+        <v>547757.7174853582</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>547757.7174853584</v>
+        <v>547757.7174853585</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>547757.7174853585</v>
+        <v>547757.7174853584</v>
       </c>
     </row>
     <row r="16">
@@ -26319,25 +26319,25 @@
         <v>41226.93184331214</v>
       </c>
       <c r="D2" t="n">
-        <v>41226.93184331213</v>
+        <v>41226.93184331214</v>
       </c>
       <c r="E2" t="n">
-        <v>99214.752345488</v>
+        <v>99214.75234548798</v>
       </c>
       <c r="F2" t="n">
-        <v>113280.4425545801</v>
+        <v>113280.4425545803</v>
       </c>
       <c r="G2" t="n">
+        <v>171267.2805630952</v>
+      </c>
+      <c r="H2" t="n">
         <v>171267.2805630951</v>
-      </c>
-      <c r="H2" t="n">
-        <v>171267.2805630952</v>
       </c>
       <c r="I2" t="n">
         <v>171267.2805630952</v>
       </c>
       <c r="J2" t="n">
-        <v>171267.2805630951</v>
+        <v>171267.2805630952</v>
       </c>
       <c r="K2" t="n">
         <v>171267.2805630951</v>
@@ -26349,7 +26349,7 @@
         <v>171267.2805630951</v>
       </c>
       <c r="N2" t="n">
-        <v>171267.2805630952</v>
+        <v>171267.2805630951</v>
       </c>
       <c r="O2" t="n">
         <v>171267.2805630952</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>343333.6099712366</v>
+        <v>343333.6099712367</v>
       </c>
       <c r="F3" t="n">
-        <v>51993.88551362359</v>
+        <v>51993.88551362423</v>
       </c>
       <c r="G3" t="n">
-        <v>208934.9480672998</v>
+        <v>208934.9480672991</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54714.37234877473</v>
+        <v>54714.37234877474</v>
       </c>
       <c r="N3" t="n">
-        <v>13670.42408488162</v>
+        <v>13670.42408488176</v>
       </c>
       <c r="O3" t="n">
-        <v>55520.50188128561</v>
+        <v>55520.50188128538</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>24251.1363784189</v>
       </c>
       <c r="E4" t="n">
-        <v>6370.933865405144</v>
+        <v>6370.933865405143</v>
       </c>
       <c r="F4" t="n">
-        <v>7896.79499483482</v>
+        <v>7896.794994834842</v>
       </c>
       <c r="G4" t="n">
         <v>14245.63240438179</v>
@@ -26441,10 +26441,10 @@
         <v>14245.63240438179</v>
       </c>
       <c r="J4" t="n">
-        <v>14245.6324043818</v>
+        <v>14245.63240438181</v>
       </c>
       <c r="K4" t="n">
-        <v>14245.6324043818</v>
+        <v>14245.63240438179</v>
       </c>
       <c r="L4" t="n">
         <v>14245.6324043818</v>
@@ -26453,10 +26453,10 @@
         <v>14245.63240438179</v>
       </c>
       <c r="N4" t="n">
+        <v>14245.63240438179</v>
+      </c>
+      <c r="O4" t="n">
         <v>14245.6324043818</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14245.63240438181</v>
       </c>
       <c r="P4" t="n">
         <v>14245.6324043818</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20886.45015162829</v>
+        <v>20886.4501516283</v>
       </c>
       <c r="F5" t="n">
-        <v>25272.86212941226</v>
+        <v>25272.86212941233</v>
       </c>
       <c r="G5" t="n">
         <v>43385.32273194157</v>
@@ -26490,13 +26490,13 @@
         <v>43385.32273194158</v>
       </c>
       <c r="I5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="J5" t="n">
         <v>43385.32273194157</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194157</v>
@@ -26505,7 +26505,7 @@
         <v>43385.32273194156</v>
       </c>
       <c r="N5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="O5" t="n">
         <v>43385.32273194157</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="C6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="D6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="E6" t="n">
-        <v>-271376.241642782</v>
+        <v>-272421.4493828391</v>
       </c>
       <c r="F6" t="n">
-        <v>28116.89991670948</v>
+        <v>27154.43153082308</v>
       </c>
       <c r="G6" t="n">
-        <v>-95298.62264052805</v>
+        <v>-95919.99197930422</v>
       </c>
       <c r="H6" t="n">
-        <v>113636.3254267719</v>
+        <v>113014.9560879948</v>
       </c>
       <c r="I6" t="n">
-        <v>113636.3254267718</v>
+        <v>113014.9560879949</v>
       </c>
       <c r="J6" t="n">
-        <v>113636.3254267719</v>
+        <v>113014.9560879949</v>
       </c>
       <c r="K6" t="n">
-        <v>113636.3254267718</v>
+        <v>113014.9560879948</v>
       </c>
       <c r="L6" t="n">
-        <v>113636.3254267718</v>
+        <v>113014.9560879948</v>
       </c>
       <c r="M6" t="n">
-        <v>58921.95307799705</v>
+        <v>58300.58373922007</v>
       </c>
       <c r="N6" t="n">
-        <v>99965.90134189022</v>
+        <v>99344.53200311304</v>
       </c>
       <c r="O6" t="n">
-        <v>58115.82354548624</v>
+        <v>57494.45420670953</v>
       </c>
       <c r="P6" t="n">
-        <v>113636.3254267717</v>
+        <v>113014.9560879948</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>345.7528191377625</v>
       </c>
       <c r="F3" t="n">
-        <v>391.298863716912</v>
+        <v>391.2988637169126</v>
       </c>
       <c r="G3" t="n">
         <v>578.6986538040985</v>
@@ -26758,7 +26758,7 @@
         <v>578.6986538040985</v>
       </c>
       <c r="I3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040985</v>
       </c>
       <c r="J3" t="n">
         <v>578.6986538040984</v>
@@ -26801,7 +26801,7 @@
         <v>219.5565574740966</v>
       </c>
       <c r="F4" t="n">
-        <v>275.3708371773615</v>
+        <v>275.3708371773623</v>
       </c>
       <c r="G4" t="n">
         <v>506.0804618258589</v>
@@ -26810,13 +26810,13 @@
         <v>506.0804618258591</v>
       </c>
       <c r="I4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="J4" t="n">
         <v>506.0804618258591</v>
       </c>
       <c r="K4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="L4" t="n">
         <v>506.0804618258589</v>
@@ -26825,10 +26825,10 @@
         <v>506.0804618258588</v>
       </c>
       <c r="N4" t="n">
+        <v>506.0804618258588</v>
+      </c>
+      <c r="O4" t="n">
         <v>506.0804618258589</v>
-      </c>
-      <c r="O4" t="n">
-        <v>506.0804618258591</v>
       </c>
       <c r="P4" t="n">
         <v>506.080461825859</v>
@@ -26971,10 +26971,10 @@
         <v>345.7528191377625</v>
       </c>
       <c r="F3" t="n">
-        <v>45.54604457914957</v>
+        <v>45.54604457915013</v>
       </c>
       <c r="G3" t="n">
-        <v>187.3997900871865</v>
+        <v>187.3997900871859</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>219.5565574740966</v>
       </c>
       <c r="F4" t="n">
-        <v>55.81427970326502</v>
+        <v>55.8142797032657</v>
       </c>
       <c r="G4" t="n">
-        <v>230.7096246484975</v>
+        <v>230.7096246484966</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>219.5565574740965</v>
       </c>
       <c r="N4" t="n">
-        <v>55.81427970326514</v>
+        <v>55.8142797032657</v>
       </c>
       <c r="O4" t="n">
-        <v>230.7096246484977</v>
+        <v>230.7096246484967</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>219.5565574740966</v>
       </c>
       <c r="N4" t="n">
-        <v>55.81427970326502</v>
+        <v>55.8142797032657</v>
       </c>
       <c r="O4" t="n">
-        <v>230.7096246484975</v>
+        <v>230.7096246484966</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>14.23493893063159</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229584</v>
+        <v>53.58647461229585</v>
       </c>
       <c r="J11" t="n">
         <v>117.9712093800751</v>
@@ -31776,7 +31776,7 @@
         <v>248.0142307569801</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482319</v>
       </c>
       <c r="P11" t="n">
         <v>199.8781410373233</v>
@@ -31785,13 +31785,13 @@
         <v>150.1001597896002</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>87.31214281472353</v>
       </c>
       <c r="S11" t="n">
         <v>31.67373815518297</v>
       </c>
       <c r="T11" t="n">
-        <v>6.084554636283637</v>
+        <v>6.084554636283638</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111968865568682</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510362</v>
+        <v>0.7436947430510363</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729746</v>
+        <v>7.182525544729748</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60527953048524</v>
+        <v>25.60527953048525</v>
       </c>
       <c r="J12" t="n">
-        <v>70.26284412308058</v>
+        <v>70.2628441230806</v>
       </c>
       <c r="K12" t="n">
         <v>120.0903919075</v>
@@ -31852,28 +31852,28 @@
         <v>188.4352864300805</v>
       </c>
       <c r="N12" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551904</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223227</v>
       </c>
       <c r="P12" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322633</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.9319815866551</v>
+        <v>94.93198158665511</v>
       </c>
       <c r="R12" t="n">
-        <v>46.17431045013365</v>
+        <v>46.17431045013366</v>
       </c>
       <c r="S12" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026815</v>
       </c>
       <c r="T12" t="n">
         <v>2.99761170554343</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704188</v>
+        <v>0.04892728572704189</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.623488690248424</v>
+        <v>0.6234886902484241</v>
       </c>
       <c r="H13" t="n">
-        <v>5.54338126420872</v>
+        <v>5.543381264208721</v>
       </c>
       <c r="I13" t="n">
-        <v>18.75000533947079</v>
+        <v>18.7500053394708</v>
       </c>
       <c r="J13" t="n">
         <v>44.08065040056358</v>
@@ -31925,25 +31925,25 @@
         <v>72.43804964886235</v>
       </c>
       <c r="L13" t="n">
-        <v>92.6957640029339</v>
+        <v>92.69576400293391</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594158</v>
+        <v>97.7346862359416</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501573</v>
+        <v>95.41077384501574</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711364</v>
+        <v>88.12729232711365</v>
       </c>
       <c r="P13" t="n">
-        <v>75.40812304604573</v>
+        <v>75.40812304604574</v>
       </c>
       <c r="Q13" t="n">
         <v>52.20867568980213</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517004</v>
+        <v>28.03431874517005</v>
       </c>
       <c r="S13" t="n">
         <v>10.86570744732935</v>
@@ -31952,7 +31952,7 @@
         <v>2.663997131061448</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03400847401355044</v>
+        <v>0.03400847401355045</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.573060758660952</v>
+        <v>1.573060758660954</v>
       </c>
       <c r="H14" t="n">
-        <v>16.11010849463647</v>
+        <v>16.1101084946365</v>
       </c>
       <c r="I14" t="n">
-        <v>60.6454248982764</v>
+        <v>60.6454248982765</v>
       </c>
       <c r="J14" t="n">
-        <v>133.5115655654001</v>
+        <v>133.5115655654003</v>
       </c>
       <c r="K14" t="n">
-        <v>200.0992274795182</v>
+        <v>200.0992274795185</v>
       </c>
       <c r="L14" t="n">
-        <v>248.2407856723883</v>
+        <v>248.2407856723887</v>
       </c>
       <c r="M14" t="n">
-        <v>276.215704939225</v>
+        <v>276.2157049392255</v>
       </c>
       <c r="N14" t="n">
-        <v>280.6851638197705</v>
+        <v>280.6851638197709</v>
       </c>
       <c r="O14" t="n">
-        <v>265.0430409008356</v>
+        <v>265.043040900836</v>
       </c>
       <c r="P14" t="n">
-        <v>226.2081034213934</v>
+        <v>226.2081034213937</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.872865001848</v>
+        <v>169.8728650018482</v>
       </c>
       <c r="R14" t="n">
-        <v>98.81377788123609</v>
+        <v>98.81377788123625</v>
       </c>
       <c r="S14" t="n">
-        <v>35.84612203798648</v>
+        <v>35.84612203798653</v>
       </c>
       <c r="T14" t="n">
-        <v>6.886073471038319</v>
+        <v>6.886073471038331</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1258448606928761</v>
+        <v>0.1258448606928763</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.841661706862792</v>
+        <v>0.8416617068627933</v>
       </c>
       <c r="H15" t="n">
-        <v>8.128680168911702</v>
+        <v>8.128680168911716</v>
       </c>
       <c r="I15" t="n">
-        <v>28.97826490733736</v>
+        <v>28.9782649073374</v>
       </c>
       <c r="J15" t="n">
-        <v>79.5185738049623</v>
+        <v>79.51857380496243</v>
       </c>
       <c r="K15" t="n">
-        <v>135.9099081647693</v>
+        <v>135.9099081647696</v>
       </c>
       <c r="L15" t="n">
-        <v>182.7476438519409</v>
+        <v>182.7476438519411</v>
       </c>
       <c r="M15" t="n">
-        <v>213.257880725717</v>
+        <v>213.2578807257174</v>
       </c>
       <c r="N15" t="n">
-        <v>218.9021822598978</v>
+        <v>218.9021822598982</v>
       </c>
       <c r="O15" t="n">
-        <v>200.2527307552012</v>
+        <v>200.2527307552015</v>
       </c>
       <c r="P15" t="n">
-        <v>160.7204710236502</v>
+        <v>160.7204710236504</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.4373785812925</v>
+        <v>107.4373785812927</v>
       </c>
       <c r="R15" t="n">
-        <v>52.25685579977933</v>
+        <v>52.25685579977942</v>
       </c>
       <c r="S15" t="n">
-        <v>15.63349705510492</v>
+        <v>15.63349705510494</v>
       </c>
       <c r="T15" t="n">
-        <v>3.39248731845134</v>
+        <v>3.392487318451345</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05537248071465738</v>
+        <v>0.05537248071465747</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7056209017845954</v>
+        <v>0.7056209017845965</v>
       </c>
       <c r="H16" t="n">
-        <v>6.273611290412134</v>
+        <v>6.273611290412145</v>
       </c>
       <c r="I16" t="n">
-        <v>21.21994493730402</v>
+        <v>21.21994493730405</v>
       </c>
       <c r="J16" t="n">
-        <v>49.88739775617089</v>
+        <v>49.88739775617097</v>
       </c>
       <c r="K16" t="n">
-        <v>81.98031931642842</v>
+        <v>81.98031931642856</v>
       </c>
       <c r="L16" t="n">
-        <v>104.906583888957</v>
+        <v>104.9065838889572</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6092837224707</v>
+        <v>110.6092837224709</v>
       </c>
       <c r="N16" t="n">
-        <v>107.9792421794555</v>
+        <v>107.9792421794557</v>
       </c>
       <c r="O16" t="n">
-        <v>99.73630709951721</v>
+        <v>99.73630709951738</v>
       </c>
       <c r="P16" t="n">
-        <v>85.34164070311139</v>
+        <v>85.34164070311152</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.08612842125371</v>
+        <v>59.08612842125381</v>
       </c>
       <c r="R16" t="n">
-        <v>31.72728163842371</v>
+        <v>31.72728163842376</v>
       </c>
       <c r="S16" t="n">
-        <v>12.29704789746426</v>
+        <v>12.29704789746428</v>
       </c>
       <c r="T16" t="n">
-        <v>3.014925671261452</v>
+        <v>3.014925671261457</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03848841282461433</v>
+        <v>0.0384884128246144</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H23" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I23" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J23" t="n">
         <v>197.4525622846457</v>
@@ -32715,16 +32715,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L23" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M23" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N23" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O23" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P23" t="n">
         <v>334.5430745340568</v>
@@ -32736,7 +32736,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S23" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T23" t="n">
         <v>10.18393309357765</v>
@@ -32782,10 +32782,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H24" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I24" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J24" t="n">
         <v>117.601393411265</v>
@@ -32794,34 +32794,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L24" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M24" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N24" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O24" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P24" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q24" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R24" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S24" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T24" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H25" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I25" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J25" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K25" t="n">
         <v>121.2421114035472</v>
@@ -32876,10 +32876,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M25" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N25" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O25" t="n">
         <v>147.5017486778054</v>
@@ -32888,19 +32888,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R25" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S25" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T25" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676711</v>
+        <v>44.64761804676714</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626088</v>
+        <v>87.67187230626091</v>
       </c>
       <c r="L11" t="n">
         <v>123.8608853786927</v>
@@ -35424,13 +35424,13 @@
         <v>155.1019400003608</v>
       </c>
       <c r="O11" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224488</v>
       </c>
       <c r="P11" t="n">
         <v>106.2287777564391</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.06635539044814</v>
+        <v>60.06635539044817</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.89360532308057</v>
+        <v>18.89360532308059</v>
       </c>
       <c r="K12" t="n">
-        <v>152.7819717673903</v>
+        <v>64.26460912288465</v>
       </c>
       <c r="L12" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836315</v>
       </c>
       <c r="M12" t="n">
         <v>130.8710026916631</v>
       </c>
       <c r="N12" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614404</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223227</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945949</v>
+        <v>87.75344272945952</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181638</v>
+        <v>202.7891365427485</v>
       </c>
       <c r="R12" t="n">
-        <v>76.03241081642648</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.30544777956411</v>
       </c>
       <c r="K13" t="n">
-        <v>219.5565574740966</v>
+        <v>20.18768008979552</v>
       </c>
       <c r="L13" t="n">
         <v>219.5565574740966</v>
       </c>
       <c r="M13" t="n">
-        <v>41.46974373716154</v>
+        <v>41.46974373716155</v>
       </c>
       <c r="N13" t="n">
-        <v>43.69812833659628</v>
+        <v>90.72271384841993</v>
       </c>
       <c r="O13" t="n">
-        <v>32.05239425411731</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="P13" t="n">
-        <v>194.6232718179152</v>
+        <v>219.5565574740966</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.3986047832474</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>60.18797423209213</v>
+        <v>60.18797423209233</v>
       </c>
       <c r="K14" t="n">
-        <v>110.9628378063011</v>
+        <v>110.9628378063014</v>
       </c>
       <c r="L14" t="n">
-        <v>152.7553876095435</v>
+        <v>152.7553876095439</v>
       </c>
       <c r="M14" t="n">
-        <v>182.9254804821796</v>
+        <v>182.92548048218</v>
       </c>
       <c r="N14" t="n">
-        <v>187.7728730631512</v>
+        <v>187.7728730631516</v>
       </c>
       <c r="O14" t="n">
-        <v>171.8532652750525</v>
+        <v>171.8532652750529</v>
       </c>
       <c r="P14" t="n">
-        <v>132.5587401405092</v>
+        <v>132.5587401405095</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.83906060269592</v>
+        <v>79.83906060269618</v>
       </c>
       <c r="R14" t="n">
-        <v>11.50163506651258</v>
+        <v>11.50163506651273</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>28.14933500496229</v>
+        <v>180.4158189847717</v>
       </c>
       <c r="K15" t="n">
-        <v>89.83948842512677</v>
+        <v>80.08412538015418</v>
       </c>
       <c r="L15" t="n">
-        <v>126.6331200410918</v>
+        <v>126.6331200410921</v>
       </c>
       <c r="M15" t="n">
-        <v>155.6935969872996</v>
+        <v>155.6935969872999</v>
       </c>
       <c r="N15" t="n">
-        <v>165.7087888661478</v>
+        <v>165.7087888661482</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5012517552012</v>
+        <v>142.5012517552015</v>
       </c>
       <c r="P15" t="n">
-        <v>106.4608360208464</v>
+        <v>106.4608360208467</v>
       </c>
       <c r="Q15" t="n">
-        <v>275.3708371773615</v>
+        <v>50.74476007645399</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.11495616607223</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>29.7299497573616</v>
+        <v>29.72994975736174</v>
       </c>
       <c r="L16" t="n">
-        <v>204.9529939253847</v>
+        <v>204.9529939253853</v>
       </c>
       <c r="M16" t="n">
-        <v>275.3708371773615</v>
+        <v>275.3708371773623</v>
       </c>
       <c r="N16" t="n">
-        <v>275.3708371773615</v>
+        <v>275.3708371773623</v>
       </c>
       <c r="O16" t="n">
-        <v>275.3708371773615</v>
+        <v>275.3708371773623</v>
       </c>
       <c r="P16" t="n">
-        <v>29.56179906320661</v>
+        <v>29.56179906320674</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.5177167169413</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R18" t="n">
         <v>107.1416677554515</v>
@@ -36050,19 +36050,19 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M19" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N19" t="n">
-        <v>216.303115815105</v>
+        <v>313.6590452194407</v>
       </c>
       <c r="O19" t="n">
-        <v>409.6841833510116</v>
+        <v>91.42685060480903</v>
       </c>
       <c r="P19" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J21" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K21" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L21" t="n">
-        <v>506.0804618258591</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M21" t="n">
         <v>257.8264825848162</v>
       </c>
       <c r="N21" t="n">
-        <v>483.691289687071</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O21" t="n">
         <v>238.4057462161409</v>
@@ -36220,10 +36220,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.1983779132225</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R21" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K22" t="n">
-        <v>92.92219217911871</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L22" t="n">
-        <v>417.6704839137738</v>
+        <v>105.6876475902797</v>
       </c>
       <c r="M22" t="n">
         <v>455.7678973594753</v>
@@ -36299,7 +36299,7 @@
         <v>70.43338606845134</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J23" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K23" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L23" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M23" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O23" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P23" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R23" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471049</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.549893009077124</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
         <v>312.361855595743</v>
@@ -36445,22 +36445,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>270.5448280395448</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P24" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>361.1414746226777</v>
+        <v>341.3760161886397</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375331</v>
+        <v>18.28336828375328</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.34618924547859</v>
+        <v>22.34618924547858</v>
       </c>
       <c r="K25" t="n">
-        <v>158.5801352410746</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L25" t="n">
-        <v>417.6704839137739</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M25" t="n">
-        <v>455.7678973594754</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
         <v>443.3679056323699</v>
@@ -36533,10 +36533,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>70.43338606845134</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.02397106449332</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>161.1941121877317</v>
       </c>
       <c r="R26" t="n">
-        <v>58.82526145471109</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>66.23215461126495</v>
       </c>
       <c r="K27" t="n">
-        <v>506.0804618258591</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L27" t="n">
         <v>214.1541257794518</v>
       </c>
       <c r="M27" t="n">
-        <v>401.9925482824782</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N27" t="n">
         <v>270.5448280395447</v>
       </c>
       <c r="O27" t="n">
-        <v>238.4057462161408</v>
+        <v>250.73816052574</v>
       </c>
       <c r="P27" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.1983779132224</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>22.34618924547856</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>243.4981817473046</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N28" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>290.9087448428446</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P28" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
         <v>26.0239710644933</v>
@@ -36910,7 +36910,7 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J30" t="n">
-        <v>167.4228683925619</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
@@ -36931,10 +36931,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>506.0804618258589</v>
+        <v>272.2831751509793</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K31" t="n">
-        <v>92.92219217911857</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
-        <v>417.6704839137738</v>
+        <v>160.4121687474733</v>
       </c>
       <c r="M31" t="n">
         <v>455.7678973594753</v>
@@ -37004,13 +37004,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O31" t="n">
-        <v>409.6841833510115</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P31" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>145.1737298295874</v>
+        <v>295.493068633307</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794518</v>
@@ -37168,7 +37168,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>272.2831751509797</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R33" t="n">
         <v>107.1416677554515</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K34" t="n">
         <v>68.9917418444803</v>
@@ -37244,7 +37244,7 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>94.36383640308964</v>
+        <v>160.0217794650455</v>
       </c>
       <c r="Q34" t="n">
         <v>26.0239710644933</v>
@@ -37396,7 +37396,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N36" t="n">
-        <v>440.6296252773019</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O36" t="n">
         <v>238.4057462161408</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132224</v>
+        <v>272.2831751509793</v>
       </c>
       <c r="R36" t="n">
         <v>107.1416677554515</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K37" t="n">
-        <v>92.92219217911813</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L37" t="n">
         <v>417.6704839137738</v>
@@ -37481,7 +37481,7 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
-        <v>70.43338606845131</v>
+        <v>160.021779465045</v>
       </c>
       <c r="Q37" t="n">
         <v>26.0239710644933</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
         <v>312.361855595743</v>
@@ -37642,10 +37642,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>361.1414746226779</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K40" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L40" t="n">
-        <v>105.6876475902795</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>70.43338606845131</v>
+        <v>160.021779465045</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
-        <v>190.5203167870935</v>
+        <v>67.74988084380352</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L42" t="n">
-        <v>506.0804618258591</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8264825848162</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="N42" t="n">
-        <v>270.5448280395447</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="O42" t="n">
         <v>238.4057462161408</v>
@@ -37882,7 +37882,7 @@
         <v>102.1983779132224</v>
       </c>
       <c r="R42" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>164.7775638705003</v>
+        <v>92.92219217911857</v>
       </c>
       <c r="L43" t="n">
         <v>417.6704839137738</v>
@@ -37949,13 +37949,13 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q43" t="n">
         <v>26.0239710644933</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J45" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
-        <v>506.080461825859</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794518</v>
@@ -38116,7 +38116,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>157.5061441391865</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R45" t="n">
         <v>107.1416677554515</v>
@@ -38177,7 +38177,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>92.9221921791188</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
@@ -38186,16 +38186,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O46" t="n">
-        <v>409.6841833510115</v>
+        <v>169.556718718899</v>
       </c>
       <c r="P46" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
